--- a/files/input/transition_table.xlsx
+++ b/files/input/transition_table.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2eccab34e79df71/Documentos/Python/Exercicios2/files/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_24288EA0D6BE8CE81342282D108BA2C9849A5A66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED44A371-237D-44C2-AD7D-9003A4E1CC9E}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Estado</t>
   </si>
@@ -55,6 +61,9 @@
     <t>)</t>
   </si>
   <si>
+    <t>"</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -64,8 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,7 +84,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -109,37 +117,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -147,10 +170,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -188,71 +211,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -280,7 +303,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -303,11 +326,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -316,13 +339,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -332,7 +355,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -341,7 +364,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,7 +373,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -358,10 +381,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -426,48 +449,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="16" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +511,9 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -528,7 +528,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -566,15 +566,17 @@
         <v>16</v>
       </c>
       <c r="M2" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="P2" s="1">
+        <v>21</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -589,7 +591,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -635,7 +637,9 @@
       <c r="O3" s="1">
         <v>2</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="1">
+        <v>22</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -650,7 +654,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -668,7 +672,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -683,7 +687,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -729,7 +733,9 @@
       <c r="O5" s="1">
         <v>4</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -744,7 +750,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -762,7 +768,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -777,7 +783,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -795,7 +801,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -810,7 +816,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -824,7 +830,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -856,7 +862,9 @@
       <c r="O8" s="1">
         <v>7</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="1">
+        <v>7</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -871,7 +879,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -889,7 +897,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -904,7 +912,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -922,7 +930,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -937,7 +945,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -983,7 +991,9 @@
       <c r="O11" s="1">
         <v>10</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="P11" s="1">
+        <v>10</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -998,7 +1008,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1016,7 +1026,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1031,7 +1041,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1049,7 +1059,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1064,7 +1074,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1082,7 +1092,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1097,7 +1107,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1115,7 +1125,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1130,7 +1140,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1148,7 +1158,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1163,7 +1173,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1181,7 +1191,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="2"/>
+      <c r="P17" s="1"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1196,25 +1206,55 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="2"/>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1">
+        <v>17</v>
+      </c>
+      <c r="L18" s="1">
+        <v>17</v>
+      </c>
+      <c r="M18" s="1">
+        <v>17</v>
+      </c>
+      <c r="N18" s="1">
+        <v>17</v>
+      </c>
+      <c r="O18" s="1">
+        <v>17</v>
+      </c>
+      <c r="P18" s="1">
+        <v>22</v>
+      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1229,7 +1269,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1247,7 +1287,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="2"/>
+      <c r="P19" s="1"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1262,7 +1302,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1280,7 +1320,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1295,8 +1335,10 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1311,7 +1353,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1326,8 +1368,10 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1342,7 +1386,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1357,8 +1401,10 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1373,7 +1419,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="1"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1388,8 +1434,10 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1404,7 +1452,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1419,7 +1467,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1435,7 +1483,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="2"/>
+      <c r="P25" s="1"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1450,7 +1498,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1466,7 +1514,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="1"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1481,7 +1529,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1497,7 +1545,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -1512,7 +1560,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1528,7 +1576,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="2"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -1543,7 +1591,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1559,7 +1607,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="2"/>
+      <c r="P29" s="1"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1574,7 +1622,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1590,7 +1638,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="1"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -1605,7 +1653,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1621,7 +1669,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="3"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -1636,7 +1684,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1652,7 +1700,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="3"/>
+      <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -1667,7 +1715,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1683,7 +1731,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="3"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -1698,7 +1746,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1714,7 +1762,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="3"/>
+      <c r="P34" s="4"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -1729,7 +1777,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1745,7 +1793,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="3"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
